--- a/adminpass2.xlsx
+++ b/adminpass2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\projects\amity-booking-portal-old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEC31EF-9CA9-40F4-BD6A-C2FAECB2A789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E226B292-1B1A-42E3-A2B5-2266B9EF45E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,73 +20,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>vcaum@123</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+  <si>
+    <t>ASET_venue</t>
+  </si>
+  <si>
+    <t>venue_00686</t>
+  </si>
+  <si>
+    <t>ABS_venue</t>
+  </si>
+  <si>
+    <t>venue_29395</t>
+  </si>
+  <si>
+    <t>AFS_venue</t>
+  </si>
+  <si>
+    <t>venue_19823</t>
+  </si>
+  <si>
+    <t>AIBAS_venue</t>
+  </si>
+  <si>
+    <t>venue_96499</t>
+  </si>
+  <si>
+    <t>AIB_venue</t>
+  </si>
+  <si>
+    <t>venue_37460</t>
+  </si>
+  <si>
+    <t>AIIT_venue</t>
+  </si>
+  <si>
+    <t>venue_97950</t>
+  </si>
+  <si>
+    <t>AILA_venue</t>
+  </si>
+  <si>
+    <t>venue_22533</t>
+  </si>
+  <si>
+    <t>AIP_venue</t>
+  </si>
+  <si>
+    <t>venue_86056</t>
+  </si>
+  <si>
+    <t>AIT_venue</t>
+  </si>
+  <si>
+    <t>venue_65254</t>
+  </si>
+  <si>
+    <t>AITT_venue</t>
+  </si>
+  <si>
+    <t>venue_03396</t>
+  </si>
+  <si>
+    <t>ALS_venue</t>
+  </si>
+  <si>
+    <t>venue_39540</t>
+  </si>
+  <si>
+    <t>ASAP_venue</t>
+  </si>
+  <si>
+    <t>venue_31726</t>
+  </si>
+  <si>
+    <t>ASAS_venue</t>
+  </si>
+  <si>
+    <t>venue_58037</t>
+  </si>
+  <si>
+    <t>ASCO_venue</t>
+  </si>
+  <si>
+    <t>venue_56366</t>
+  </si>
+  <si>
+    <t>ASFT_venue</t>
+  </si>
+  <si>
+    <t>venue_28042</t>
+  </si>
+  <si>
+    <t>ASL_venue</t>
+  </si>
+  <si>
+    <t>venue_10844</t>
+  </si>
+  <si>
+    <t>CIIOL_venue</t>
+  </si>
+  <si>
+    <t>venue_06932</t>
+  </si>
+  <si>
+    <t>TUCSSBERICS_venue</t>
+  </si>
+  <si>
+    <t>venue_40988</t>
+  </si>
+  <si>
+    <t>ASFA_venue</t>
+  </si>
+  <si>
+    <t>venue_02634</t>
+  </si>
+  <si>
+    <t>AIE_venue</t>
+  </si>
+  <si>
+    <t>venue_81354</t>
+  </si>
+  <si>
+    <t>AIN_venue</t>
+  </si>
+  <si>
+    <t>venue_82477</t>
   </si>
   <si>
     <t>Director_Admin_1</t>
   </si>
   <si>
-    <t>venue_22222</t>
+    <t>venue_22223</t>
   </si>
   <si>
     <t>Director_Admin_2</t>
   </si>
   <si>
-    <t>venue_33333</t>
+    <t>venue_33334</t>
   </si>
   <si>
     <t>CRC_Dept</t>
   </si>
   <si>
-    <t>venue_44444</t>
+    <t>venue_44445</t>
   </si>
   <si>
     <t>HR_Dept</t>
   </si>
   <si>
-    <t>venue_55555</t>
+    <t>venue_55556</t>
   </si>
   <si>
     <t>Hostel_Security_Dept</t>
   </si>
   <si>
-    <t>venue_66666</t>
+    <t>venue_66667</t>
   </si>
   <si>
     <t>Admissions_Dept</t>
   </si>
   <si>
-    <t>venue_77777</t>
+    <t>venue_77778</t>
   </si>
   <si>
     <t>Examinations_Dept</t>
   </si>
   <si>
-    <t>venue_88888</t>
-  </si>
-  <si>
-    <t>testdebug</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Password :</t>
-  </si>
-  <si>
-    <t>Username :</t>
+    <t>venue_88889</t>
+  </si>
+  <si>
+    <t>IT_dept</t>
+  </si>
+  <si>
+    <t>venue_99990</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>School Name</t>
+  </si>
+  <si>
+    <t>Amity School of Engineering and Technology</t>
+  </si>
+  <si>
+    <t>Amity Business School</t>
+  </si>
+  <si>
+    <t>Amity Film School</t>
+  </si>
+  <si>
+    <t>Amity Institute of Behavioural &amp; Allied Sciences</t>
+  </si>
+  <si>
+    <t>Amity Institute of Biotechnology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amity Institute of Information Technology</t>
+  </si>
+  <si>
+    <t>Amity Institute of Liberal Arts</t>
+  </si>
+  <si>
+    <t>Amity Institute of Pharmacy</t>
+  </si>
+  <si>
+    <t>Amity Institute of Technology</t>
+  </si>
+  <si>
+    <t>Amity Institute of Travel &amp; Tourism</t>
+  </si>
+  <si>
+    <t>Amity Law School</t>
+  </si>
+  <si>
+    <t>Amity School of Architecture &amp; Planning</t>
+  </si>
+  <si>
+    <t>Amity School of Applied Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amity School of Communication</t>
+  </si>
+  <si>
+    <t>Amity School of Fashion Technology</t>
+  </si>
+  <si>
+    <t>Amity School of Languages</t>
+  </si>
+  <si>
+    <t>CII Logistics</t>
+  </si>
+  <si>
+    <t>RICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amity School of Fine Arts</t>
+  </si>
+  <si>
+    <t>Amity Institute of Education</t>
+  </si>
+  <si>
+    <t>Amity Institute of Nanotechnology</t>
+  </si>
+  <si>
+    <t>Director Admin 1</t>
+  </si>
+  <si>
+    <t>Director Admin 2</t>
+  </si>
+  <si>
+    <t>CRC Dept</t>
+  </si>
+  <si>
+    <t>HR Dept</t>
+  </si>
+  <si>
+    <t>Hostel Security Dept</t>
+  </si>
+  <si>
+    <t>Admissions Dept</t>
+  </si>
+  <si>
+    <t>Examinations Dept</t>
+  </si>
+  <si>
+    <t>IT dept</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +316,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,13 +364,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,100 +683,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="1" max="1" width="49.1796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>